--- a/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D134" activeCellId="0" sqref="D134"/>
+      <selection pane="topLeft" activeCell="A135" activeCellId="0" sqref="A135:A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,6 +1240,22 @@
         <v>43598</v>
       </c>
     </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>43600</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A135" activeCellId="0" sqref="A135:A136"/>
+      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,6 +1256,30 @@
         <v>43600</v>
       </c>
     </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>43603</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/New Data Files/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138:A139"/>
+      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141:A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1280,6 +1280,30 @@
         <v>43603</v>
       </c>
     </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>43606</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
